--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automatización\WebConvergente_BDD\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\autos\WebConvergente_BDD_Aseguramiento\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9FD948-BB20-4773-8F89-FC80DDC6D879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginWC" sheetId="1" r:id="rId1"/>
@@ -23,9 +22,9 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="261">
   <si>
     <t>1</t>
   </si>
@@ -188,18 +187,6 @@
     <t>Remoto</t>
   </si>
   <si>
-    <t>{
-    "tipdoc": "1",
-    "numero_de_doc": "10021425",
-    "codatis": "159220",
-    "canal_de_venta": "GRANDES SUPERFICIES",
-    "canalequivcampania": "RETAIL",
-    "entidad": "TRADE DEVELOPMENT S.A.C.",
-    "punto_de_venta": "LIM TIENDAS METRO SAN BORJA",
-    "asesor_nombre": "PERCY ALEXANDER CHAVEZ"
-}</t>
-  </si>
-  <si>
     <t>Robot</t>
   </si>
   <si>
@@ -798,27 +785,6 @@
   </si>
   <si>
     <t>http://convergencia-qa-frontend-ofertacomercial.mybluemix.net/loginSales?token=</t>
-  </si>
-  <si>
-    <t>MT31867</t>
-  </si>
-  <si>
-    <t>prueba@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 6S 32GB LTE</t>
-  </si>
-  <si>
-    <t>GP - Mantener - equipo</t>
-  </si>
-  <si>
-    <t>https://tdp-rest-backend-fija.mybluemix.net/user/web/generarToken</t>
-  </si>
-  <si>
-    <t>calle enrique villar 273</t>
-  </si>
-  <si>
-    <t>987654323</t>
   </si>
   <si>
     <t>{
@@ -833,26 +799,57 @@
 }</t>
   </si>
   <si>
-    <t>Ql5zClLTeZr4xib6At1mLsxlLX/l4Zns1nQZ/3iHBQIhPsunKivunj6qbMn0iPJ78N2DfmyBmTqC9LOAVNHY57gqHJgPNk5VDSOyZC3DbXDDl9iCe06A4EdDEQOJy8fL9VURvKjFT6bL96KftQtwvpKVG2nrsOCzm6b9rl83Ux2akSiyCgfPj9Tr3ZUHvzYCJ1IwxrY0R+2CwJpOO7uoZFiWxakWLTTM</t>
-  </si>
-  <si>
-    <t>https://convergencia-qa-frontend-ofertacomercial.mybluemix.net/loginSales?token=</t>
-  </si>
-  <si>
-    <t>00107876</t>
-  </si>
-  <si>
-    <t>Aldo Domingo Potesta Rodriguez</t>
-  </si>
-  <si>
-    <t>BEATRICE</t>
+    <t>MT31867</t>
+  </si>
+  <si>
+    <t>https://tdp-rest-backend-fija.mybluemix.net/user/web/generarToken</t>
+  </si>
+  <si>
+    <t>'http://convergencia-qa-frontend-ofertacomercial.mybluemix.net/loginSales?token=</t>
+  </si>
+  <si>
+    <t>06074638</t>
+  </si>
+  <si>
+    <t>calle enrique villar 272</t>
+  </si>
+  <si>
+    <t>987654322</t>
+  </si>
+  <si>
+    <t>AUGUSTA</t>
+  </si>
+  <si>
+    <t>GP - Mantener</t>
+  </si>
+  <si>
+    <t>Movistar Total 32GB TV Estándar Digital HD 100Mbps</t>
+  </si>
+  <si>
+    <t>OMAR WARREN MANGHIERT YUCRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "tipdoc": "1",
+    "numero_de_doc": "73027174",
+    "codatis": "168453",
+    "canal_de_venta": "GRANDES SUPERFICIES",
+    "canalequivcampania": "RETAIL",
+    "entidad": "INDRA PERU SA",
+    "punto_de_venta": "PRUEBAS QA RETAIL VENTA",
+    "asesor_nombre": "VICTOR JESUS MORALES AGUILAR"
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://convergencia-qa-frontend-oc-parrilla.mybluemix.net/loginSales?token=
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,7 +895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,6 +935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,11 +1192,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,13 +1225,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,9 +1234,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,6 +1242,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1540,30 +1545,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="2.19921875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="54.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="2.140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="54.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -1598,15 +1603,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
@@ -1633,18 +1638,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>248</v>
+      <c r="C3" s="62" t="s">
+        <v>260</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1659,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>30</v>
@@ -1668,24 +1673,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>258</v>
+      <c r="C4" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
@@ -1694,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>30</v>
@@ -1703,12 +1708,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1721,156 +1726,159 @@
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
-    <oddFooter><![CDATA[&C&1#&"Arial"&7&K000000Sensitivity: Internal & Restricted]]></oddFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7&amp;K000000Sensitivity: Internal &amp; Restricted</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="8.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" style="9" width="12.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="9" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="9" width="17.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="9" width="17.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="9" width="20.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="9" width="16.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="9" width="13.0" collapsed="true"/>
-    <col min="15" max="15" style="9" width="9.109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="9" width="19.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="9" width="18.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="9" width="22.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="9" width="21.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="9" width="25.21875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="9" width="15.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="9" width="30.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="9" width="27.44140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="9" width="44.77734375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="9" width="11.5546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="9" width="11.44140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="9" width="33.109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="9" width="9.5546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="9" width="13.109375" collapsed="true"/>
-    <col min="31" max="31" style="9" width="9.109375" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="1" max="1" width="8.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="12.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13" style="9" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" style="9" collapsed="1"/>
+    <col min="16" max="16" width="19.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.28515625" style="9" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.28515625" style="9" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21" style="9" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="42.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="33.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.5703125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="9" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>209</v>
-      </c>
       <c r="H2" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+        <v>212</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>8</v>
@@ -1888,62 +1896,62 @@
         <v>12</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-    </row>
-    <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+    </row>
+    <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>1</v>
@@ -1961,10 +1969,10 @@
         <v>2</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>34</v>
@@ -1979,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>39</v>
@@ -1991,48 +1999,48 @@
         <v>42</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
     </row>
-    <row r="4" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="K4" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>1</v>
@@ -2044,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>2</v>
@@ -2064,10 +2072,10 @@
         <v>27</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z4" s="11" t="s">
         <v>39</v>
@@ -2076,48 +2084,48 @@
         <v>42</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="K5" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>1</v>
@@ -2129,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>2</v>
@@ -2149,10 +2157,10 @@
         <v>27</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z5" s="11" t="s">
         <v>39</v>
@@ -2161,48 +2169,48 @@
         <v>42</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
     </row>
-    <row r="6" spans="1:31" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>1</v>
@@ -2214,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>2</v>
@@ -2234,10 +2242,10 @@
         <v>27</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z6" s="17" t="s">
         <v>39</v>
@@ -2246,48 +2254,48 @@
         <v>42</v>
       </c>
       <c r="AB6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="18"/>
       <c r="AD6" s="18"/>
       <c r="AE6" s="18"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>217</v>
-      </c>
       <c r="K7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>1</v>
@@ -2299,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>2</v>
@@ -2319,10 +2327,10 @@
         <v>27</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z7" s="17" t="s">
         <v>39</v>
@@ -2331,50 +2339,50 @@
         <v>42</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="L8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>1</v>
@@ -2386,16 +2394,16 @@
         <v>1</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>34</v>
@@ -2410,10 +2418,10 @@
         <v>27</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z8" s="17" t="s">
         <v>39</v>
@@ -2422,50 +2430,50 @@
         <v>42</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="L9" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>1</v>
@@ -2477,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>34</v>
@@ -2501,10 +2509,10 @@
         <v>27</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z9" s="17" t="s">
         <v>39</v>
@@ -2513,50 +2521,50 @@
         <v>42</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC9" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>1</v>
@@ -2568,16 +2576,16 @@
         <v>1</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T10" s="17" t="s">
         <v>34</v>
@@ -2592,10 +2600,10 @@
         <v>27</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z10" s="17" t="s">
         <v>39</v>
@@ -2604,48 +2612,48 @@
         <v>42</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>175</v>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="I11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="L11" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>1</v>
@@ -2657,16 +2665,16 @@
         <v>1</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>34</v>
@@ -2681,10 +2689,10 @@
         <v>27</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z11" s="17" t="s">
         <v>39</v>
@@ -2693,269 +2701,234 @@
         <v>42</v>
       </c>
       <c r="AB11" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="11"/>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>2</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7</v>
+      </c>
+      <c r="I14" s="9">
+        <v>8</v>
+      </c>
+      <c r="J14" s="9">
+        <v>9</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9">
-        <v>5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>6</v>
-      </c>
-      <c r="H15" s="9">
-        <v>7</v>
-      </c>
-      <c r="I15" s="9">
-        <v>8</v>
-      </c>
-      <c r="J15" s="9">
-        <v>9</v>
-      </c>
-      <c r="K15" s="9">
-        <v>10</v>
-      </c>
-      <c r="L15" s="9">
-        <v>11</v>
-      </c>
-      <c r="M15" s="9">
+      <c r="M14" s="9">
         <v>12</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N14" s="9">
         <v>13</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O14" s="9">
         <v>14</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P14" s="9">
         <v>15</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q14" s="9">
         <v>16</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R14" s="9">
         <v>17</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S14" s="9">
         <v>18</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T14" s="9">
         <v>19</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U14" s="9">
         <v>20</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V14" s="9">
         <v>21</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W14" s="9">
         <v>22</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X14" s="9">
         <v>23</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y14" s="9">
         <v>24</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z14" s="9">
         <v>25</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA14" s="9">
         <v>26</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB14" s="9">
         <v>27</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC14" s="9">
         <v>28</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD14" s="9">
         <v>29</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AE14" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:31" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
+    <row r="16" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="1:31" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:H1"/>
@@ -2972,53 +2945,59 @@
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter><![CDATA[&C&1#&"Arial"&7&K000000Sensitivity: Internal & Restricted]]></oddFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7&amp;K000000Sensitivity: Internal &amp; Restricted</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$M$2:$M$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I13</xm:sqref>
+          <xm:sqref>I3:I12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:H11 G12:G13</xm:sqref>
+          <xm:sqref>F3:H11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$Q$2:$Q$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K13</xm:sqref>
+          <xm:sqref>K3:K11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$R$2:$R$3</xm:f>
           </x14:formula1>
           <xm:sqref>L3:L11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$P$2:$P$5</xm:f>
           </x14:formula1>
@@ -3031,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3041,60 +3020,60 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="49.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3113,249 +3092,249 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="7.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="49.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="7.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
         <v>170</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="D10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>180</v>
-      </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
         <v>111</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3365,165 +3344,165 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="29" max="30" style="7" width="9.109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10" customWidth="1" collapsed="1"/>
+    <col min="29" max="30" width="9.140625" style="7" collapsed="1"/>
+    <col min="31" max="31" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="H1" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="I1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="K1" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59" t="s">
+      <c r="U1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="V1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59" t="s">
+      <c r="AA1" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="59" t="s">
+      <c r="AB1" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="59" t="s">
+      <c r="AC1" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="Y2" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="AD2" s="30" t="s">
-        <v>183</v>
-      </c>
       <c r="AE2" s="58"/>
     </row>
-    <row r="3" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>1</v>
@@ -3532,82 +3511,82 @@
         <v>1</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="U3" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="V3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB3" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AC3" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD3" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="AB3" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3632,7 +3611,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3656,7 +3635,7 @@
       <c r="U5" s="13"/>
       <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3680,7 +3659,7 @@
       <c r="U6" s="13"/>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3705,7 +3684,7 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3730,7 +3709,7 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3827,16 +3806,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -3847,54 +3816,64 @@
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'D:\[DataFija.xlsx]BD'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J4:P8 Q3:T8 Z3:Z8 V4:Y8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>J3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>K3:P3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$I$3:$I$4</xm:f>
           </x14:formula1>
           <xm:sqref>V3:Y3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$K$3:$K$33</xm:f>
           </x14:formula1>
           <xm:sqref>AC3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$L$3:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>AD3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$N$2:$N$3</xm:f>
           </x14:formula1>
@@ -3907,144 +3886,144 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="11" max="12" style="7" width="9.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="9.140625" style="7" collapsed="1"/>
+    <col min="15" max="15" width="15" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="60"/>
+      <c r="I1" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="59"/>
       <c r="M1" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>0</v>
@@ -4053,250 +4032,250 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="P4" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="K5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P5" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="13" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H6" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H6" s="13" t="s">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H7" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H7" s="13" t="s">
+      <c r="K7" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H8" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H9" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="33" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K10" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K10" s="33" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K11" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K11" s="33" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K12" s="33" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K13" s="33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K13" s="33" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K14" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K14" s="33" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K15" s="33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K15" s="33" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K16" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K16" s="33" t="s">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K18" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="33" t="s">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="33" t="s">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="33" t="s">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="33" t="s">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="33" t="s">
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="33" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="33" t="s">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="33" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="33" t="s">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="33" t="s">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K27" s="33" t="s">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="33" t="s">
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="33" t="s">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="33" t="s">
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K31" s="33" t="s">
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K32" s="33" t="s">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="33" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K33" s="33" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4319,15 +4298,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071BA08FC65A35F40AC39CF87D500A7B6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44d0e96754824fcec14ec49b771b777d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="488f3ee6-0001-45be-affc-d6376ed368d5" xmlns:ns3="2acf951f-4a47-41d0-97c6-406441da21db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dcf609c98bbcd36707286e9ddd8f43b" ns2:_="" ns3:_="">
     <xsd:import namespace="488f3ee6-0001-45be-affc-d6376ed368d5"/>
@@ -4538,24 +4508,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14F9207-B468-4C5A-A13C-069080B0B2F8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2acf951f-4a47-41d0-97c6-406441da21db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="488f3ee6-0001-45be-affc-d6376ed368d5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60C4900-1EDF-44B3-93D4-62B87FCEEDBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DFFD36-5FF8-49A5-9771-C22DD9E4E765}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4572,4 +4551,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60C4900-1EDF-44B3-93D4-62B87FCEEDBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>